--- a/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A589B5D-EE15-41A3-A4B2-C9F36D474EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37B5604-C27D-468F-A7EA-305E09218CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C295B7A-ABA9-4C6D-AD95-906388B3BA0D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF360B35-2F78-41BC-8BC3-FF9FC08BAC72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -290,217 +290,217 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>88,98%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5A649-2BB2-41C5-8533-7063776B6BF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A02C7D-EC86-4E24-A52C-F60D4E71754B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523F46E0-2CD3-45AA-BC02-2C4B711CE163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1385D83-8AED-48EE-9C9D-32011EDEC0A2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417EF9D-A1FE-42C4-AAF8-64D383717E33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6094577B-B28B-4F45-A7D1-51A98B2983A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B431FE60-D1DF-4086-A08B-AF316C5E04A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4056C8-E827-45E1-87A3-1474DD604EE6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37B5604-C27D-468F-A7EA-305E09218CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35136EEC-2044-43B1-BC94-A2C57C9F7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF360B35-2F78-41BC-8BC3-FF9FC08BAC72}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F34E8375-7A55-4413-BAFC-1D0358002E91}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -239,7 +239,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A02C7D-EC86-4E24-A52C-F60D4E71754B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD485ADC-FBF1-45C8-B7DC-C8B86BE4FC9B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1269,7 +1269,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1320,7 +1320,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1385D83-8AED-48EE-9C9D-32011EDEC0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867DCBA3-FA71-432F-B977-BD99CDFFFD83}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6094577B-B28B-4F45-A7D1-51A98B2983A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D765F5A-79D3-4D86-87EB-477B6656ED67}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4056C8-E827-45E1-87A3-1474DD604EE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA316E-F316-40DC-AB13-8BCF2D5EA827}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35136EEC-2044-43B1-BC94-A2C57C9F7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDB5FC3-A924-431D-AC11-725AED56185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F34E8375-7A55-4413-BAFC-1D0358002E91}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76A601F6-F336-4997-8D08-2EA5D88EF22C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -290,217 +290,217 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>88,98%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD485ADC-FBF1-45C8-B7DC-C8B86BE4FC9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC38860-B56C-46C2-BBD2-C8E6A04942E2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1269,7 +1269,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1320,7 +1320,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867DCBA3-FA71-432F-B977-BD99CDFFFD83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE70D932-59C4-4140-BF45-003522AE6E45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D765F5A-79D3-4D86-87EB-477B6656ED67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A17343-8ADC-4874-B6C7-2B06996808F2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA316E-F316-40DC-AB13-8BCF2D5EA827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801ACBE2-66E7-4E15-A790-C67ABFB588FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDB5FC3-A924-431D-AC11-725AED56185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46378F7E-F4C9-43A1-99A4-EDB95C0FF863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76A601F6-F336-4997-8D08-2EA5D88EF22C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CCC3FF04-3F19-4DC1-B280-6661A17B1E60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -287,220 +287,220 @@
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC38860-B56C-46C2-BBD2-C8E6A04942E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059474C6-7DC4-4309-81D2-CC793A36EAA1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1424,7 +1424,7 @@
         <v>567</v>
       </c>
       <c r="N11" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1475,7 +1475,7 @@
         <v>567</v>
       </c>
       <c r="N12" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE70D932-59C4-4140-BF45-003522AE6E45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BD7E0E-74A2-4913-9365-C12A6F36A024}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A17343-8ADC-4874-B6C7-2B06996808F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5265B4-F8A7-445C-9ACC-9C55B250C9D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801ACBE2-66E7-4E15-A790-C67ABFB588FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B0A355-7FA2-4C7C-9E21-88646168F64E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3286,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>12583</v>
+        <v>11671</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>82</v>
@@ -3301,7 +3301,7 @@
         <v>141</v>
       </c>
       <c r="I4" s="7">
-        <v>88891</v>
+        <v>78912</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>85</v>
@@ -3316,7 +3316,7 @@
         <v>157</v>
       </c>
       <c r="N4" s="7">
-        <v>101474</v>
+        <v>90583</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>88</v>
@@ -3337,7 +3337,7 @@
         <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>527980</v>
+        <v>502271</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>91</v>
@@ -3352,7 +3352,7 @@
         <v>1283</v>
       </c>
       <c r="I5" s="7">
-        <v>743034</v>
+        <v>673150</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>94</v>
@@ -3367,7 +3367,7 @@
         <v>1957</v>
       </c>
       <c r="N5" s="7">
-        <v>1271014</v>
+        <v>1175421</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>97</v>
@@ -3388,7 +3388,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3403,7 +3403,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3418,7 +3418,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372488</v>
+        <v>1266004</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3441,7 +3441,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>26427</v>
+        <v>25769</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>100</v>
@@ -3456,7 +3456,7 @@
         <v>264</v>
       </c>
       <c r="I7" s="7">
-        <v>277465</v>
+        <v>358036</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>103</v>
@@ -3471,7 +3471,7 @@
         <v>288</v>
       </c>
       <c r="N7" s="7">
-        <v>303892</v>
+        <v>383804</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>106</v>
@@ -3492,7 +3492,7 @@
         <v>1968</v>
       </c>
       <c r="D8" s="7">
-        <v>2135595</v>
+        <v>2264558</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>109</v>
@@ -3507,7 +3507,7 @@
         <v>2655</v>
       </c>
       <c r="I8" s="7">
-        <v>1970939</v>
+        <v>1878751</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>112</v>
@@ -3522,7 +3522,7 @@
         <v>4623</v>
       </c>
       <c r="N8" s="7">
-        <v>4106534</v>
+        <v>4143310</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>115</v>
@@ -3543,7 +3543,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3558,7 +3558,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248404</v>
+        <v>2236787</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3573,7 +3573,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4410426</v>
+        <v>4527114</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3596,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>8584</v>
+        <v>7685</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>118</v>
@@ -3611,7 +3611,7 @@
         <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>51791</v>
+        <v>48079</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>121</v>
@@ -3626,7 +3626,7 @@
         <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>60374</v>
+        <v>55764</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>124</v>
@@ -3647,7 +3647,7 @@
         <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>664455</v>
+        <v>638938</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>127</v>
@@ -3662,7 +3662,7 @@
         <v>922</v>
       </c>
       <c r="I11" s="7">
-        <v>661375</v>
+        <v>611737</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>130</v>
@@ -3677,7 +3677,7 @@
         <v>1592</v>
       </c>
       <c r="N11" s="7">
-        <v>1325831</v>
+        <v>1250675</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>133</v>
@@ -3698,7 +3698,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3713,7 +3713,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713166</v>
+        <v>659816</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3728,7 +3728,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386205</v>
+        <v>1306439</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3751,7 +3751,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>47594</v>
+        <v>45124</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>136</v>
@@ -3766,7 +3766,7 @@
         <v>486</v>
       </c>
       <c r="I13" s="7">
-        <v>418146</v>
+        <v>485027</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>139</v>
@@ -3781,7 +3781,7 @@
         <v>537</v>
       </c>
       <c r="N13" s="7">
-        <v>465741</v>
+        <v>530151</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>142</v>
@@ -3802,7 +3802,7 @@
         <v>3312</v>
       </c>
       <c r="D14" s="7">
-        <v>3328030</v>
+        <v>3405768</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>145</v>
@@ -3817,7 +3817,7 @@
         <v>4860</v>
       </c>
       <c r="I14" s="7">
-        <v>3375349</v>
+        <v>3163638</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>148</v>
@@ -3832,7 +3832,7 @@
         <v>8172</v>
       </c>
       <c r="N14" s="7">
-        <v>6703378</v>
+        <v>6569406</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>151</v>
@@ -3853,7 +3853,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3868,7 +3868,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793495</v>
+        <v>3648665</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3883,7 +3883,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169119</v>
+        <v>7099557</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
